--- a/doxs/export.xlsx
+++ b/doxs/export.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\HeatCool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\phpexcel.io\doxs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{126A9BC6-DD2C-4FBE-B1DD-805AE7D804BF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F822BE7-6534-4040-A7E0-B1099ECDAECB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" xr2:uid="{0E2E10AF-ED6F-4DA0-9D4A-E0D673E4F343}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>Dodávateľ:</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Objednávka č.</t>
   </si>
   <si>
-    <t xml:space="preserve">zo dňa </t>
-  </si>
-  <si>
     <t>811 05  Bratislava - mestská časť Staré Mesto</t>
   </si>
   <si>
@@ -202,6 +199,12 @@
   </si>
   <si>
     <t>No info</t>
+  </si>
+  <si>
+    <t>do 14 dni</t>
+  </si>
+  <si>
+    <t>19 443,6‬</t>
   </si>
 </sst>
 </file>
@@ -415,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -427,6 +430,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" readingOrder="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" readingOrder="3"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -436,52 +484,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" readingOrder="3"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" readingOrder="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -803,8 +812,8 @@
   </sheetPr>
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,22 +840,22 @@
     </row>
     <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13"/>
+      <c r="B2" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -868,82 +877,82 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18">
+      <c r="K4" s="30"/>
+      <c r="L4" s="23">
         <v>200400001</v>
       </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="18">
+      <c r="K5" s="35"/>
+      <c r="L5" s="23">
         <v>308</v>
       </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="37">
+        <v>43882</v>
+      </c>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="C7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -963,82 +972,82 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
+      <c r="J8" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="C9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="22">
+        <v>8</v>
+      </c>
+      <c r="K9" s="31">
         <v>54654654</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="C10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="20">
+        <v>10</v>
+      </c>
+      <c r="K10" s="22">
         <v>4654650546</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="C11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="20">
+        <v>12</v>
+      </c>
+      <c r="K11" s="22">
         <v>546540656</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1052,74 +1061,74 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
+        <v>15</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="C14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="18">
+        <v>16</v>
+      </c>
+      <c r="K14" s="23">
         <v>100</v>
       </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1131,15 +1140,15 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-      <c r="C16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="C16" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1151,15 +1160,15 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
-      <c r="C17" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="C17" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1203,78 +1212,82 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="36">
+        <v>43882</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="28"/>
+      <c r="C21" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
-      <c r="C22" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="29"/>
+      <c r="C22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="19"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
       <c r="O22" s="6"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
       <c r="O23" s="6"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
@@ -1286,11 +1299,11 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
       <c r="O24" s="6"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
@@ -1302,11 +1315,11 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
       <c r="O25" s="6"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1343,32 +1356,32 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="31" t="s">
+      <c r="G28" s="27"/>
+      <c r="H28" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="31"/>
-      <c r="H28" s="33" t="s">
+      <c r="I28" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="31" t="s">
+      <c r="J28" s="27"/>
+      <c r="K28" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="J28" s="31"/>
-      <c r="K28" s="33" t="s">
+      <c r="L28" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="L28" s="33" t="s">
+      <c r="M28" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="M28" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="N28" s="31"/>
+      <c r="N28" s="27"/>
       <c r="O28" s="6"/>
     </row>
     <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1405,20 +1418,20 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
-      <c r="C31" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
+      <c r="C31" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
       <c r="O31" s="6"/>
     </row>
     <row r="32" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1455,21 +1468,21 @@
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23">
+        <v>1</v>
+      </c>
+      <c r="G34" s="23"/>
+      <c r="H34" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="18">
-        <v>1</v>
-      </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19" t="s">
-        <v>57</v>
-      </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="19" t="s">
-        <v>57</v>
+      <c r="J34" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
@@ -1477,10 +1490,10 @@
       <c r="L34" s="1">
         <v>0</v>
       </c>
-      <c r="M34" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="N34" s="18"/>
+      <c r="M34" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="N34" s="23"/>
       <c r="O34" s="6"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
@@ -1501,21 +1514,21 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23">
+        <v>1</v>
+      </c>
+      <c r="G36" s="23"/>
+      <c r="H36" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="18">
-        <v>1</v>
-      </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="19" t="s">
-        <v>57</v>
-      </c>
       <c r="I36" s="1"/>
-      <c r="J36" s="19" t="s">
-        <v>57</v>
+      <c r="J36" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
@@ -1523,10 +1536,10 @@
       <c r="L36" s="1">
         <v>0</v>
       </c>
-      <c r="M36" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="N36" s="18"/>
+      <c r="M36" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="N36" s="23"/>
       <c r="O36" s="6"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
@@ -1547,21 +1560,21 @@
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="23">
+        <v>1</v>
+      </c>
+      <c r="G38" s="23"/>
+      <c r="H38" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="18">
-        <v>1</v>
-      </c>
-      <c r="G38" s="18"/>
-      <c r="H38" s="19" t="s">
-        <v>57</v>
-      </c>
       <c r="I38" s="1"/>
-      <c r="J38" s="19" t="s">
-        <v>57</v>
+      <c r="J38" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="K38" s="1">
         <v>0</v>
@@ -1569,10 +1582,10 @@
       <c r="L38" s="1">
         <v>0</v>
       </c>
-      <c r="M38" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="N38" s="18"/>
+      <c r="M38" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="N38" s="23"/>
       <c r="O38" s="6"/>
     </row>
     <row r="39" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1609,40 +1622,40 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
-      <c r="C41" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
+      <c r="C41" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
       <c r="O41" s="6"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
-      <c r="C42" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="21"/>
+      <c r="C42" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="26"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="30">
-        <v>6481.2</v>
-      </c>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
+      <c r="K42" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
       <c r="O42" s="6"/>
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1679,12 +1692,12 @@
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="22"/>
+      <c r="E45" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -1715,36 +1728,36 @@
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
-      <c r="C47" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32"/>
+      <c r="C47" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
       <c r="O47" s="6"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
       <c r="O48" s="6"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
@@ -1797,29 +1810,29 @@
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="31" t="s">
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31" t="s">
+      <c r="J52" s="27"/>
+      <c r="K52" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31" t="s">
+      <c r="L52" s="27"/>
+      <c r="M52" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="N52" s="31"/>
-      <c r="O52" s="34"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="21"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
@@ -1839,26 +1852,26 @@
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
-      <c r="C54" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="18">
+      <c r="C54" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="23">
         <v>10</v>
       </c>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="35">
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="24">
         <v>0.1</v>
       </c>
-      <c r="J54" s="18"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="18">
+      <c r="J54" s="23"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="23">
         <v>10</v>
       </c>
-      <c r="N54" s="18"/>
+      <c r="N54" s="23"/>
       <c r="O54" s="6"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
@@ -1911,18 +1924,18 @@
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="J58" s="20"/>
+      <c r="J58" s="22"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -1979,13 +1992,13 @@
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
-      <c r="C62" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
+      <c r="C62" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -2029,11 +2042,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="J21:N25"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C31:N31"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="C41:N41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="K42:N42"/>
     <mergeCell ref="M54:N54"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="E58:H58"/>
@@ -2045,53 +2100,11 @@
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="M52:N52"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="C41:N41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C31:N31"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="J21:N25"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/doxs/export.xlsx
+++ b/doxs/export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\phpexcel.io\doxs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F822BE7-6534-4040-A7E0-B1099ECDAECB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA0ECE8-20AB-4E7E-9D10-3CB0C65EE5E5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" xr2:uid="{0E2E10AF-ED6F-4DA0-9D4A-E0D673E4F343}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>Dodávateľ:</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>6 481.2</t>
-  </si>
-  <si>
-    <t>No info</t>
   </si>
   <si>
     <t>do 14 dni</t>
@@ -418,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -453,28 +450,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -484,15 +465,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -812,8 +813,8 @@
   </sheetPr>
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53:N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,22 +841,22 @@
     </row>
     <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -886,15 +887,15 @@
       <c r="G4" s="12"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="23">
+      <c r="K4" s="27"/>
+      <c r="L4" s="28">
         <v>200400001</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -909,15 +910,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="23">
+      <c r="K5" s="29"/>
+      <c r="L5" s="28">
         <v>308</v>
       </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -932,15 +933,15 @@
       <c r="G6" s="12"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="37">
+      <c r="K6" s="27"/>
+      <c r="L6" s="30">
         <v>43882</v>
       </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -972,13 +973,13 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -996,12 +997,12 @@
       <c r="J9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="32">
         <v>54654654</v>
       </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1019,12 +1020,12 @@
       <c r="J10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="33">
         <v>4654650546</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1042,12 +1043,12 @@
       <c r="J11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="33">
         <v>546540656</v>
       </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1063,59 +1064,59 @@
       <c r="J12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22" t="s">
+      <c r="D13" s="33"/>
+      <c r="E13" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="K13" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="28">
         <v>100</v>
       </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1123,12 +1124,12 @@
       <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1140,15 +1141,15 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22" t="s">
+      <c r="D16" s="33"/>
+      <c r="E16" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1160,15 +1161,15 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22" t="s">
+      <c r="D17" s="33"/>
+      <c r="E17" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1212,82 +1213,82 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="17"/>
       <c r="G20" s="14"/>
-      <c r="H20" s="36">
+      <c r="H20" s="23">
         <v>43882</v>
       </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="17"/>
       <c r="G21" s="14"/>
       <c r="H21" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="19"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
       <c r="O22" s="6"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23" t="s">
+      <c r="D23" s="33"/>
+      <c r="E23" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
       <c r="O23" s="6"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
@@ -1299,11 +1300,11 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
       <c r="O24" s="6"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
@@ -1315,11 +1316,11 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
       <c r="O25" s="6"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1356,32 +1357,32 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="27" t="s">
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="27"/>
+      <c r="G28" s="35"/>
       <c r="H28" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="27" t="s">
+      <c r="I28" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="27"/>
+      <c r="J28" s="35"/>
       <c r="K28" s="20" t="s">
         <v>34</v>
       </c>
       <c r="L28" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="M28" s="27" t="s">
+      <c r="M28" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="N28" s="27"/>
+      <c r="N28" s="35"/>
       <c r="O28" s="6"/>
     </row>
     <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1418,20 +1419,20 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
       <c r="O31" s="6"/>
     </row>
     <row r="32" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1468,15 +1469,15 @@
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23">
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="28">
         <v>1</v>
       </c>
-      <c r="G34" s="23"/>
+      <c r="G34" s="28"/>
       <c r="H34" s="14" t="s">
         <v>56</v>
       </c>
@@ -1490,10 +1491,10 @@
       <c r="L34" s="1">
         <v>0</v>
       </c>
-      <c r="M34" s="23" t="s">
+      <c r="M34" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N34" s="23"/>
+      <c r="N34" s="28"/>
       <c r="O34" s="6"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
@@ -1514,15 +1515,15 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23">
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="28">
         <v>1</v>
       </c>
-      <c r="G36" s="23"/>
+      <c r="G36" s="28"/>
       <c r="H36" s="14" t="s">
         <v>56</v>
       </c>
@@ -1536,10 +1537,10 @@
       <c r="L36" s="1">
         <v>0</v>
       </c>
-      <c r="M36" s="23" t="s">
+      <c r="M36" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N36" s="23"/>
+      <c r="N36" s="28"/>
       <c r="O36" s="6"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
@@ -1560,15 +1561,15 @@
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="23">
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="28">
         <v>1</v>
       </c>
-      <c r="G38" s="23"/>
+      <c r="G38" s="28"/>
       <c r="H38" s="14" t="s">
         <v>56</v>
       </c>
@@ -1582,10 +1583,10 @@
       <c r="L38" s="1">
         <v>0</v>
       </c>
-      <c r="M38" s="23" t="s">
+      <c r="M38" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N38" s="23"/>
+      <c r="N38" s="28"/>
       <c r="O38" s="6"/>
     </row>
     <row r="39" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1622,40 +1623,40 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
       <c r="O41" s="6"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="26"/>
+      <c r="D42" s="31"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
+      <c r="K42" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
       <c r="O42" s="6"/>
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1692,10 +1693,10 @@
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="22"/>
+      <c r="D45" s="33"/>
       <c r="E45" s="1" t="s">
         <v>41</v>
       </c>
@@ -1728,36 +1729,36 @@
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
       <c r="O47" s="6"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
       <c r="O48" s="6"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
@@ -1810,28 +1811,28 @@
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="27" t="s">
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27" t="s">
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27" t="s">
+      <c r="J52" s="35"/>
+      <c r="K52" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27" t="s">
+      <c r="L52" s="35"/>
+      <c r="M52" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="N52" s="27"/>
+      <c r="N52" s="35"/>
       <c r="O52" s="21"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
@@ -1841,37 +1842,39 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="H53" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="J53" s="39">
+        <v>0</v>
+      </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="33"/>
       <c r="O53" s="6"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
-      <c r="C54" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="23">
-        <v>10</v>
-      </c>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="24">
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="38">
         <v>0.1</v>
       </c>
-      <c r="J54" s="23"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="23">
-        <v>10</v>
-      </c>
-      <c r="N54" s="23"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="28">
+        <v>1944.36</v>
+      </c>
+      <c r="N54" s="28"/>
       <c r="O54" s="6"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
@@ -1881,13 +1884,19 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="H55" s="1">
+        <v>19443.599999999999</v>
+      </c>
       <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="J55" s="39">
+        <v>0.2</v>
+      </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
+      <c r="N55" s="1">
+        <v>3888.72</v>
+      </c>
       <c r="O55" s="6"/>
     </row>
     <row r="56" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1924,18 +1933,18 @@
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22" t="s">
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="J58" s="22"/>
+      <c r="J58" s="33"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -1992,13 +2001,13 @@
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -2041,54 +2050,12 @@
       <c r="O64" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="J21:N25"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C31:N31"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="C41:N41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="K42:N42"/>
+  <mergeCells count="64">
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
     <mergeCell ref="M54:N54"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="E58:H58"/>
@@ -2100,11 +2067,54 @@
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="M52:N52"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="C41:N41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C31:N31"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="J21:N25"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:N5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
